--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F27305-F8B8-4ACE-A577-0CAD3504E6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF828060-A285-4A0F-B5E8-6641D4A2DA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4170" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Tên đường giới hạn khu vực</t>
-  </si>
-  <si>
-    <t>Loại đất</t>
-  </si>
-  <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
-    <t>Giá đất tại bảng</t>
-  </si>
-  <si>
-    <t>Giá đất cụ thể</t>
-  </si>
-  <si>
-    <t>Hệ số điều chỉnh</t>
-  </si>
-  <si>
-    <t>Hoàng Hoa Thám</t>
-  </si>
-  <si>
-    <t>Thổ cư</t>
-  </si>
-  <si>
-    <t>Lê Văn Lương</t>
-  </si>
-  <si>
-    <t>Trong Ngõ</t>
-  </si>
-  <si>
-    <t>Mặt Đường</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>Tên sản phẩm dịch vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mức thu học phí 1 </t>
+  </si>
+  <si>
+    <t>Giá cấp phát các loại phôi văn bằng, chứng chỉ</t>
+  </si>
+  <si>
+    <t>Năm học (1)</t>
+  </si>
+  <si>
+    <t>Thành thị(1)</t>
+  </si>
+  <si>
+    <t>Nông Thôn(1)</t>
+  </si>
+  <si>
+    <t>Miền núi(1)</t>
+  </si>
+  <si>
+    <t>Miền núi(2)</t>
+  </si>
+  <si>
+    <t>Năm học (2)</t>
+  </si>
+  <si>
+    <t>Thành thị(2)</t>
+  </si>
+  <si>
+    <t>Nông Thôn(2)</t>
+  </si>
+  <si>
+    <t>Năm học (3)</t>
+  </si>
+  <si>
+    <t>Thành thị(3)</t>
+  </si>
+  <si>
+    <t>Nông Thôn(3)</t>
+  </si>
+  <si>
+    <t>Miền núi(3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +85,28 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F4254"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4E6EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +114,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEBEDF3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEBEDF3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEBEDF3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEBEDF3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,82 +458,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="13" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="B3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="2">
         <v>5000</v>
       </c>
-      <c r="E2">
+      <c r="D3" s="2">
         <v>6000</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="E3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="2">
         <v>5000</v>
       </c>
-      <c r="E3">
+      <c r="H3" s="2">
         <v>6000</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="I3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6000</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF828060-A285-4A0F-B5E8-6641D4A2DA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6477A3F-A83E-481B-BA43-38E83146310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,64 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>Tên sản phẩm dịch vụ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mức thu học phí 1 </t>
-  </si>
-  <si>
-    <t>Giá cấp phát các loại phôi văn bằng, chứng chỉ</t>
-  </si>
-  <si>
-    <t>Năm học (1)</t>
-  </si>
-  <si>
-    <t>Thành thị(1)</t>
-  </si>
-  <si>
-    <t>Nông Thôn(1)</t>
-  </si>
-  <si>
-    <t>Miền núi(1)</t>
-  </si>
-  <si>
-    <t>Miền núi(2)</t>
-  </si>
-  <si>
-    <t>Năm học (2)</t>
-  </si>
-  <si>
-    <t>Thành thị(2)</t>
-  </si>
-  <si>
-    <t>Nông Thôn(2)</t>
-  </si>
-  <si>
-    <t>Năm học (3)</t>
-  </si>
-  <si>
-    <t>Thành thị(3)</t>
-  </si>
-  <si>
-    <t>Nông Thôn(3)</t>
-  </si>
-  <si>
-    <t>Miền núi(3)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Mức thu Mầm non (Nhà trẻ, mầu giáo bán trú và không bán trú)</t>
+  </si>
+  <si>
+    <t>Mức thu Trung học cơ sở</t>
+  </si>
+  <si>
+    <t>Mức thu Trung học phổ thông (giáo dục thường xuyên)</t>
+  </si>
+  <si>
+    <t>Mức hỗ trợ Tiểu Học</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Khu vực thành thị</t>
+  </si>
+  <si>
+    <t>Khu vực nông thôn</t>
+  </si>
+  <si>
+    <t>Khu vực miền núi hải đảo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,8 +69,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFB5B5C3"/>
+      <name val="Line Awesome Free"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +85,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE4E6EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEDF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -115,6 +111,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFEBEDF3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEBEDF3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEBEDF3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFEBEDF3"/>
       </left>
@@ -124,6 +140,28 @@
       <top style="medium">
         <color rgb="FFEBEDF3"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFEBEDF3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEBEDF3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEBEDF3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFEBEDF3"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFEBEDF3"/>
       </bottom>
@@ -133,17 +171,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,7 +242,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -190,7 +254,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -237,23 +301,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -289,23 +336,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,133 +487,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="13" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="39" thickBot="1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B3" s="4">
+        <v>300</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>300</v>
+      </c>
+      <c r="C4" s="6">
+        <v>200</v>
+      </c>
+      <c r="D4" s="6">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="39" thickBot="1">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2024</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>7000</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2024</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5000</v>
-      </c>
-      <c r="L3" s="2">
-        <v>6000</v>
-      </c>
-      <c r="M3" s="2">
-        <v>7000</v>
-      </c>
+      <c r="B5" s="12">
+        <v>300</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6477A3F-A83E-481B-BA43-38E83146310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF1C8B-7EBF-434E-9ABD-7378513E9B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Mức thu Mầm non (Nhà trẻ, mầu giáo bán trú và không bán trú)</t>
-  </si>
-  <si>
-    <t>Mức thu Trung học cơ sở</t>
-  </si>
-  <si>
-    <t>Mức thu Trung học phổ thông (giáo dục thường xuyên)</t>
-  </si>
-  <si>
-    <t>Mức hỗ trợ Tiểu Học</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Mô tả</t>
   </si>
@@ -49,13 +37,34 @@
   </si>
   <si>
     <t>Khu vực miền núi hải đảo</t>
+  </si>
+  <si>
+    <t>Mã nhóm lấy trong DM Phần mềm</t>
+  </si>
+  <si>
+    <t>MUCTHU</t>
+  </si>
+  <si>
+    <t>MUCHOTRO</t>
+  </si>
+  <si>
+    <t>Mầm non (Nhà trẻ, mầu giáo bán trú và không bán trú)</t>
+  </si>
+  <si>
+    <t>Trung học cơ sở</t>
+  </si>
+  <si>
+    <t>Trung học phổ thông (giáo dục thường xuyên)</t>
+  </si>
+  <si>
+    <t>Tiểu Học</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +77,6 @@
       <color rgb="FF3F4254"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFB5B5C3"/>
-      <name val="Line Awesome Free"/>
     </font>
   </fonts>
   <fills count="5">
@@ -102,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,59 +114,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFEBEDF3"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFEBEDF3"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFEBEDF3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFEBEDF3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFEBEDF3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFEBEDF3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFEBEDF3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFEBEDF3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFEBEDF3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFEBEDF3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFEBEDF3"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -171,43 +132,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,38 +438,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>300</v>
@@ -530,53 +483,60 @@
       <c r="D2" s="1">
         <v>50</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>300</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>300</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>200</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="39" thickBot="1">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
         <v>300</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="2">
         <v>50</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaoDucDaoTao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF1C8B-7EBF-434E-9ABD-7378513E9B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC2BD8C-6B6A-482C-AE62-A53F232FD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Mô tả</t>
   </si>
@@ -58,28 +58,39 @@
   </si>
   <si>
     <t>Tiểu Học</t>
+  </si>
+  <si>
+    <t>DANH MỤC GIÁO DỤC ĐÀO TẠO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F4254"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,24 +99,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4E6EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBEDF3"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,35 +127,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,107 +438,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="4">
         <v>300</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>300</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
         <v>300</v>
       </c>
-      <c r="C4" s="3">
-        <v>200</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4">
         <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>300</v>
+      </c>
+      <c r="C5" s="4">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="4">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="B3:D1048576" xr:uid="{02EDB8EB-3E93-4AFE-A999-722A05F0C4CE}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
